--- a/inst/A2SIT_data_input_template_GTM.xlsx
+++ b/inst/A2SIT_data_input_template_GTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42dcc5b33b6ca4b2/Work/Guatemala/2_App/A2SIT/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A2F03-93A8-4D9F-82A9-A65B6D1F22B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F59A2F03-93A8-4D9F-82A9-A65B6D1F22B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3260918F-F647-46EA-940A-7DAB835E899F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3959,7 +3959,7 @@
   <dimension ref="A1:BD345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
